--- a/MzuriFarmingProject/MzuriFarmingApp/static/excel/crops.xlsx
+++ b/MzuriFarmingProject/MzuriFarmingApp/static/excel/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP-Final_Project\MzuriFarming\MzuriFarmingProject\MzuriFarmingApp\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11C22E-7968-430D-8C40-D8EC865CF4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C4481-09FF-41B9-9E66-22DCC3FD12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4703" yWindow="907" windowWidth="10657" windowHeight="12053" xr2:uid="{5EE1C19E-7857-4E65-81C1-A9606D97EE1C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{5EE1C19E-7857-4E65-81C1-A9606D97EE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
   <si>
     <t>Cereals</t>
   </si>
@@ -390,13 +390,13 @@
     <t>Chenopodium quinoa</t>
   </si>
   <si>
-    <t>ScientificName</t>
-  </si>
-  <si>
-    <t>CropName</t>
-  </si>
-  <si>
-    <t>Classification</t>
+    <t>cropName</t>
+  </si>
+  <si>
+    <t>scientificName</t>
+  </si>
+  <si>
+    <t>classification</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C16128-1E6E-4A87-A63C-040E2D23EE22}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -763,10 +765,10 @@
         <v>120</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -781,6 +783,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -789,6 +794,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -797,6 +805,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -805,6 +816,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -813,6 +827,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -821,6 +838,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -840,6 +860,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -848,6 +871,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -856,6 +882,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -864,6 +893,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -872,6 +904,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -880,6 +915,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -899,6 +937,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -907,6 +948,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -915,6 +959,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -923,6 +970,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -931,6 +981,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -950,6 +1003,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -958,6 +1014,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -966,6 +1025,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
@@ -974,6 +1036,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -982,6 +1047,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
@@ -990,6 +1058,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
@@ -998,6 +1069,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -1006,6 +1080,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -1014,6 +1091,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -1022,6 +1102,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -1041,6 +1124,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
@@ -1049,6 +1135,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
@@ -1057,6 +1146,9 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
@@ -1065,6 +1157,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
@@ -1073,6 +1168,9 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
@@ -1081,6 +1179,9 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
       <c r="B39" t="s">
         <v>78</v>
       </c>
@@ -1089,6 +1190,9 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
@@ -1097,6 +1201,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
       <c r="B41" t="s">
         <v>82</v>
       </c>
@@ -1116,6 +1223,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
       <c r="B43" t="s">
         <v>87</v>
       </c>
@@ -1124,6 +1234,9 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
@@ -1132,6 +1245,9 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -1140,6 +1256,9 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
@@ -1148,6 +1267,9 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
       <c r="B47" t="s">
         <v>95</v>
       </c>
@@ -1156,6 +1278,9 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -1164,6 +1289,9 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
@@ -1183,6 +1311,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
@@ -1191,6 +1322,9 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
       <c r="B52" t="s">
         <v>104</v>
       </c>
@@ -1199,6 +1333,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
@@ -1207,6 +1344,9 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
@@ -1215,6 +1355,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
@@ -1223,6 +1366,9 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
       <c r="B56" t="s">
         <v>112</v>
       </c>
@@ -1231,6 +1377,9 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
       <c r="B57" t="s">
         <v>114</v>
       </c>
@@ -1239,6 +1388,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
       <c r="B58" t="s">
         <v>116</v>
       </c>
